--- a/xlsx/正義_intext.xlsx
+++ b/xlsx/正義_intext.xlsx
@@ -29,7 +29,7 @@
     <t>反義</t>
   </si>
   <si>
-    <t>政策_政策_政治_正義</t>
+    <t>体育运动_体育运动_伊朗_正義</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9_(%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%B8)</t>
